--- a/tfidf_pivot.xlsx
+++ b/tfidf_pivot.xlsx
@@ -393,19 +393,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -413,19 +413,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="D3" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -433,19 +433,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="D4" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E4" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -453,19 +453,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>193</v>
+        <v>32</v>
       </c>
       <c r="C5" t="n">
-        <v>64</v>
+        <v>159</v>
       </c>
       <c r="D5" t="n">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="E5" t="n">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="F5" t="n">
-        <v>73</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
@@ -473,19 +473,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="C6" t="n">
-        <v>188</v>
+        <v>148</v>
       </c>
       <c r="D6" t="n">
-        <v>350</v>
+        <v>411</v>
       </c>
       <c r="E6" t="n">
-        <v>149</v>
+        <v>234</v>
       </c>
       <c r="F6" t="n">
-        <v>180</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
